--- a/data/Preprocessing_text/ref_data_easy_questions.xlsx
+++ b/data/Preprocessing_text/ref_data_easy_questions.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1176153\Downloads\github\Thesis\data\Preprocessing_text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B841D9F8-2A69-4689-B2A8-9523D57BCF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E66FF40-5EE9-4887-B086-572225D5018D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>reference_answer</t>
   </si>
@@ -115,9 +126,6 @@
   </si>
   <si>
     <t>The first year curriculum of the Postgraduate Program in Business Intelligence is divided into two semesters. In the first semester (fall), the mandatory courses include Business Intelligence I, Data Governance, Data Mining I, and Data Privacy, Security and Ethics. Alongside these, students can choose from various electives such as Applied Multivariate Data Analysis, Brand Management, Business Process Management, Change Management, Data Management and Storage, Digital Analytics, Digital Marketing &amp; E-Commerce, Experimental Design, Forecasting Methods, Information Management Systems, Information Systems Development, Information Systems Governance, Information Technologies Services Management, Investments and Portfolio Management, Life Insurance, Marketing Strategy and Innovation, Non-Life Insurance, Statistical Analysis, Time Series Analysis, and Digital Transformation. In the second semester (spring), the mandatory courses are Business Intelligence II, Data Mining II, Data-driven Decision Making, and Knowledge Management (Gestão do Conhecimento). Electives available cover a broad spectrum of subjects including Big Data Analytics, Blockchain, Cybersecurity, Financial Derivatives, Generative Artificial Intelligence, Industry 4.0, Marketing Engineering and Analytics, Social Media Analytics, and many others. Overall, the first year starts with core mandatory courses that establish fundamental knowledge in business intelligence, data mining, governance, and ethics, while providing a wide range of electives to allow students to tailor their studies according to their interests and career goals. The second semester continues with more advanced mandatory courses and a diverse set of electives to deepen expertise in specific areas of business intelligence and analytics.</t>
-  </si>
-  <si>
-    <t>The documents don’t explicitly list the programming languages taught in the Bachelor's in Data Science. However, there is a mandatory course called "Programming for Data Science" in the second-year fall semester, which implies programming is a core part of the curriculum. Given the typical industry standards and academic trends in data science education, it’s very likely that languages such as Python and possibly R or SQL are taught, but this is an inference rather than explicitly stated in your provided context. If you want a precise list, you might need to check the detailed course syllabus or official program documentation.</t>
   </si>
   <si>
     <t>The Master in Information Management with a specialization in Business Intelligence prepares students for the digital transformation of businesses by equipping them with advanced skills in business information systems and data analytics to support data-driven decision making. The program focuses on providing the latest academic knowledge and technological tools necessary for managing and analyzing business data, enabling students to generate actionable insights that drive operational and strategic excellence in organizations. The curriculum covers key areas such as business process management, change management, data governance, data privacy, security, ethics, and information management systems—all essential for navigating and leading digital transformation initiatives. This comprehensive training ensures graduates can handle the complexity of digital business environments, manage data responsibly, and apply business intelligence techniques to improve organizational performance. Additionally, the program’s recognition as the best Master in Business Intelligence and Strategy globally by Eduniversal underscores its strong alignment with industry demands for skilled professionals capable of guiding companies through digital transformation challenges and leveraging data for competitive advantage.</t>
@@ -524,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A53"/>
+  <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,11 +801,6 @@
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
